--- a/KDT_Main_FrameWork/src/test/resources/TestData/TestCases.xlsx
+++ b/KDT_Main_FrameWork/src/test/resources/TestData/TestCases.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raki9\git\KDT_Main_FrameWork\KDT_Main_FrameWork\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="LoginTestCase" sheetId="3" r:id="rId3"/>
     <sheet name="KeyWords" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="D1:J18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -639,25 +635,25 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -671,22 +667,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -712,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -738,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="9"/>
@@ -756,7 +752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
@@ -774,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
@@ -792,7 +788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
@@ -810,7 +806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -828,7 +824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
@@ -846,7 +842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
@@ -864,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -882,7 +878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
@@ -900,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
@@ -939,23 +935,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -981,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -1007,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -1025,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="11"/>
@@ -1043,7 +1039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
@@ -1061,7 +1057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -1079,7 +1075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
@@ -1097,7 +1093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -1135,17 +1131,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" zoomScale="162" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
@@ -1153,7 +1149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1169,7 +1165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -1185,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -1201,7 +1197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
